--- a/Cepas.xlsx
+++ b/Cepas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="BGN-NF " sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'BGN-NF '!$B$1:$B$981</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'BGN-NF '!$A$1:$AW$980</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="224">
   <si>
     <t>PERFIL DE SUSCEPTIBILIDADE</t>
   </si>
@@ -162,7 +162,7 @@
     <t>SIM</t>
   </si>
   <si>
-    <t>HEMOCULTUTA</t>
+    <t>HEMOCULTURA</t>
   </si>
   <si>
     <t>Pseudomonas aeruginosa</t>
@@ -417,24 +417,21 @@
     <t>MA104</t>
   </si>
   <si>
-    <t>HEMOCULTURA</t>
-  </si>
-  <si>
     <t>Acinetobacter iwoffi</t>
   </si>
   <si>
     <t>Acinetobacter bereziniae</t>
   </si>
   <si>
+    <t>NÃO-MDR</t>
+  </si>
+  <si>
     <t>Não- MDR</t>
   </si>
   <si>
     <t>MA108</t>
   </si>
   <si>
-    <t>ASPIRADO TRANQUEAL</t>
-  </si>
-  <si>
     <t>MA109</t>
   </si>
   <si>
@@ -501,129 +498,123 @@
     <t>MA160</t>
   </si>
   <si>
+    <t>MA162</t>
+  </si>
+  <si>
+    <t>MA167</t>
+  </si>
+  <si>
+    <t>MA169</t>
+  </si>
+  <si>
+    <t>ESCARRO</t>
+  </si>
+  <si>
+    <t>MA175</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>MA179</t>
+  </si>
+  <si>
+    <t>MA180</t>
+  </si>
+  <si>
+    <t>MA181</t>
+  </si>
+  <si>
+    <t>MA183</t>
+  </si>
+  <si>
+    <t>MA187</t>
+  </si>
+  <si>
+    <t>MA191</t>
+  </si>
+  <si>
+    <t>MA192</t>
+  </si>
+  <si>
+    <t>MA193</t>
+  </si>
+  <si>
+    <t>MA195</t>
+  </si>
+  <si>
+    <t>LAVADO BRONCOALVEOLAR</t>
+  </si>
+  <si>
+    <t>MA196</t>
+  </si>
+  <si>
+    <t>MA197</t>
+  </si>
+  <si>
+    <t>MA199</t>
+  </si>
+  <si>
+    <t>MA200</t>
+  </si>
+  <si>
+    <t>MA201</t>
+  </si>
+  <si>
+    <t>Pseudomonas fluorescens</t>
+  </si>
+  <si>
+    <t>MA202</t>
+  </si>
+  <si>
+    <t>MA203</t>
+  </si>
+  <si>
+    <t>MA205</t>
+  </si>
+  <si>
+    <t>FERIDA OPERATÓRIA ABDOMINAL</t>
+  </si>
+  <si>
+    <t>MA206</t>
+  </si>
+  <si>
+    <t>MA 211</t>
+  </si>
+  <si>
+    <t>MA 214</t>
+  </si>
+  <si>
+    <t>MA222</t>
+  </si>
+  <si>
+    <t>Stenotrophomonas maltophilia</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MA223</t>
+  </si>
+  <si>
+    <t>MA 225</t>
+  </si>
+  <si>
+    <t>MA 226</t>
+  </si>
+  <si>
+    <t>MA 229</t>
+  </si>
+  <si>
+    <t>MA 230</t>
+  </si>
+  <si>
+    <t>MA 233</t>
+  </si>
+  <si>
     <t>NÃO</t>
   </si>
   <si>
-    <t>MA162</t>
-  </si>
-  <si>
-    <t>MA167</t>
-  </si>
-  <si>
-    <t>MA169</t>
-  </si>
-  <si>
-    <t>ESCARRO</t>
-  </si>
-  <si>
-    <t>MA175</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>MA179</t>
-  </si>
-  <si>
-    <t>MA180</t>
-  </si>
-  <si>
-    <t>MA181</t>
-  </si>
-  <si>
-    <t>MA183</t>
-  </si>
-  <si>
-    <t>MA187</t>
-  </si>
-  <si>
-    <t>MA191</t>
-  </si>
-  <si>
-    <t>MA192</t>
-  </si>
-  <si>
-    <t>MA193</t>
-  </si>
-  <si>
-    <t>MA195</t>
-  </si>
-  <si>
-    <t>LAVADO BRONCOALVEOLAR</t>
-  </si>
-  <si>
-    <t>MA196</t>
-  </si>
-  <si>
-    <t>MA197</t>
-  </si>
-  <si>
-    <t>MA199</t>
-  </si>
-  <si>
-    <t>não-MDR</t>
-  </si>
-  <si>
-    <t>MA200</t>
-  </si>
-  <si>
-    <t>MA201</t>
-  </si>
-  <si>
-    <t>Pseudomonas fluorescens</t>
-  </si>
-  <si>
-    <t>MA202</t>
-  </si>
-  <si>
-    <t>MA203</t>
-  </si>
-  <si>
-    <t>MA205</t>
-  </si>
-  <si>
-    <t>FERIDA OPERATÓRIA ABDOMINAL</t>
-  </si>
-  <si>
-    <t>MA206</t>
-  </si>
-  <si>
-    <t>SECREÇÃO DE TRAQUEOSTOMIA</t>
-  </si>
-  <si>
-    <t>MA 211</t>
-  </si>
-  <si>
-    <t>MA 214</t>
-  </si>
-  <si>
-    <t>MA222</t>
-  </si>
-  <si>
-    <t>Stenotrophomonas maltophilia</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>MA223</t>
-  </si>
-  <si>
-    <t>MA 225</t>
-  </si>
-  <si>
-    <t>MA 226</t>
-  </si>
-  <si>
-    <t>MA 229</t>
-  </si>
-  <si>
-    <t>MA 230</t>
-  </si>
-  <si>
-    <t>MA 233</t>
-  </si>
-  <si>
     <t>MA 235</t>
   </si>
   <si>
@@ -633,9 +624,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>MA242</t>
-  </si>
-  <si>
     <t>MA247</t>
   </si>
   <si>
@@ -648,9 +636,6 @@
     <t>MA252</t>
   </si>
   <si>
-    <t>NÃO-MDR</t>
-  </si>
-  <si>
     <t>MA259</t>
   </si>
   <si>
@@ -664,6 +649,9 @@
   </si>
   <si>
     <t>MA265</t>
+  </si>
+  <si>
+    <t>FRAGMENTO DE OSSO</t>
   </si>
   <si>
     <t>MA269</t>
@@ -924,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1061,6 +1049,9 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1106,6 +1097,9 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1136,26 +1130,17 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1163,14 +1148,11 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,8 +1367,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
@@ -3272,7 +3256,9 @@
       <c r="AG15" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AH15" s="39"/>
+      <c r="AH15" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="AI15" s="39"/>
       <c r="AJ15" s="39"/>
       <c r="AK15" s="39"/>
@@ -4673,7 +4659,9 @@
         <v>48</v>
       </c>
       <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
+      <c r="AH27" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI27" s="21"/>
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
@@ -4817,14 +4805,14 @@
         <v>44852.0</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>51</v>
@@ -4882,7 +4870,9 @@
       <c r="AB29" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AC29" s="17"/>
+      <c r="AC29" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="AD29" s="16" t="s">
         <v>137</v>
       </c>
@@ -4921,7 +4911,7 @@
         <v>44869.0</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="18" t="s">
@@ -5025,7 +5015,7 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>48</v>
@@ -5140,85 +5130,85 @@
       <c r="AW31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="48" t="s">
-        <v>141</v>
+      <c r="A32" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="49">
         <v>249632.0</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="50">
         <v>44882.0</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="51" t="s">
         <v>59</v>
       </c>
       <c r="F32" s="36"/>
-      <c r="G32" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="M32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="T32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="U32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="V32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="W32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="X32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA32" s="48" t="s">
+      <c r="G32" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA32" s="49" t="s">
         <v>52</v>
       </c>
       <c r="AB32" s="36"/>
-      <c r="AC32" s="53" t="s">
+      <c r="AC32" s="54" t="s">
         <v>53</v>
       </c>
       <c r="AD32" s="36"/>
@@ -5229,7 +5219,7 @@
         <v>48</v>
       </c>
       <c r="AG32" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH32" s="32" t="s">
         <v>56</v>
@@ -5258,85 +5248,85 @@
       <c r="AW32" s="39"/>
     </row>
     <row r="33">
-      <c r="A33" s="48" t="s">
-        <v>143</v>
+      <c r="A33" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="49">
         <v>247590.0</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="50">
         <v>44882.0</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="51" t="s">
         <v>59</v>
       </c>
       <c r="F33" s="36"/>
-      <c r="G33" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="M33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="T33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="U33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="V33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="W33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="X33" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA33" s="48" t="s">
+      <c r="G33" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="T33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="V33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="X33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z33" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33" s="49" t="s">
         <v>52</v>
       </c>
       <c r="AB33" s="36"/>
-      <c r="AC33" s="53" t="s">
+      <c r="AC33" s="54" t="s">
         <v>53</v>
       </c>
       <c r="AD33" s="36"/>
@@ -5375,86 +5365,86 @@
     </row>
     <row r="34">
       <c r="A34" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="55">
+        <v>243268.0</v>
+      </c>
+      <c r="D34" s="56">
+        <v>44872.0</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="54">
-        <v>243268.0</v>
-      </c>
-      <c r="D34" s="55">
-        <v>44872.0</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>145</v>
-      </c>
       <c r="F34" s="17"/>
-      <c r="G34" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M34" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S34" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="U34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="V34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="X34" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z34" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA34" s="54" t="s">
+      <c r="G34" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA34" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB34" s="17"/>
-      <c r="AC34" s="58" t="s">
+      <c r="AC34" s="59" t="s">
         <v>53</v>
       </c>
       <c r="AD34" s="17"/>
@@ -5491,86 +5481,86 @@
     </row>
     <row r="35">
       <c r="A35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="55">
+        <v>243317.0</v>
+      </c>
+      <c r="D35" s="56">
+        <v>44872.0</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="54">
-        <v>243317.0</v>
-      </c>
-      <c r="D35" s="55">
-        <v>44872.0</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>147</v>
-      </c>
       <c r="F35" s="17"/>
-      <c r="G35" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="U35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="X35" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA35" s="54" t="s">
+      <c r="G35" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="X35" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z35" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB35" s="17"/>
-      <c r="AC35" s="59" t="s">
+      <c r="AC35" s="60" t="s">
         <v>53</v>
       </c>
       <c r="AD35" s="17"/>
@@ -5579,7 +5569,9 @@
         <v>48</v>
       </c>
       <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
+      <c r="AH35" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI35" s="21"/>
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
@@ -5597,72 +5589,72 @@
     </row>
     <row r="36">
       <c r="A36" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="55">
         <v>241529.0</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="56">
         <v>44869.0</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q36" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
+      <c r="G36" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
       <c r="AB36" s="17"/>
-      <c r="AC36" s="58" t="s">
+      <c r="AC36" s="59" t="s">
         <v>53</v>
       </c>
       <c r="AD36" s="17"/>
@@ -5671,7 +5663,9 @@
         <v>48</v>
       </c>
       <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
+      <c r="AH36" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI36" s="21"/>
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
@@ -5689,86 +5683,86 @@
     </row>
     <row r="37">
       <c r="A37" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="55">
         <v>247748.0</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="61">
         <v>44881.0</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="62" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="54" t="s">
+      <c r="G37" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R37" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="S37" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="X37" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z37" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA37" s="54" t="s">
+      <c r="L37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="X37" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z37" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA37" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB37" s="17"/>
-      <c r="AC37" s="58" t="s">
+      <c r="AC37" s="59" t="s">
         <v>61</v>
       </c>
       <c r="AD37" s="17"/>
@@ -5777,7 +5771,9 @@
         <v>48</v>
       </c>
       <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
+      <c r="AH37" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI37" s="21"/>
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
@@ -5795,84 +5791,84 @@
     </row>
     <row r="38">
       <c r="A38" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="55">
         <v>237097.0</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="61">
         <v>44861.0</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F38" s="17"/>
-      <c r="G38" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="U38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="X38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA38" s="54" t="s">
+      <c r="G38" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="X38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z38" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA38" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB38" s="17"/>
-      <c r="AC38" s="58" t="s">
+      <c r="AC38" s="59" t="s">
         <v>53</v>
       </c>
       <c r="AD38" s="17"/>
@@ -5881,7 +5877,9 @@
         <v>48</v>
       </c>
       <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
+      <c r="AH38" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI38" s="21"/>
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
@@ -5899,7 +5897,7 @@
     </row>
     <row r="39">
       <c r="A39" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>48</v>
@@ -5907,78 +5905,78 @@
       <c r="C39" s="25">
         <v>236309.0</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="61">
         <v>44860.0</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="17"/>
-      <c r="G39" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="S39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="U39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="V39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="X39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z39" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA39" s="54" t="s">
+      <c r="G39" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="V39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="X39" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z39" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA39" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB39" s="17"/>
-      <c r="AC39" s="58" t="s">
+      <c r="AC39" s="59" t="s">
         <v>61</v>
       </c>
       <c r="AD39" s="17"/>
@@ -5987,7 +5985,9 @@
         <v>48</v>
       </c>
       <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
+      <c r="AH39" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI39" s="21"/>
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="40">
       <c r="A40" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>48</v>
@@ -6013,68 +6013,68 @@
       <c r="C40" s="25">
         <v>234217.0</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="61">
         <v>44860.0</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="17"/>
-      <c r="G40" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N40" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P40" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA40" s="54" t="s">
+      <c r="G40" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA40" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB40" s="17"/>
-      <c r="AC40" s="63" t="s">
+      <c r="AC40" s="65" t="s">
         <v>108</v>
       </c>
       <c r="AD40" s="17"/>
@@ -6083,7 +6083,9 @@
         <v>48</v>
       </c>
       <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
+      <c r="AH40" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI40" s="21"/>
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
@@ -6101,7 +6103,7 @@
     </row>
     <row r="41">
       <c r="A41" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>48</v>
@@ -6114,48 +6116,48 @@
         <v>59</v>
       </c>
       <c r="F41" s="17"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y41" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z41" s="55"/>
+      <c r="AA41" s="55"/>
       <c r="AB41" s="17"/>
-      <c r="AC41" s="63" t="s">
-        <v>52</v>
+      <c r="AC41" s="60" t="s">
+        <v>53</v>
       </c>
       <c r="AD41" s="17"/>
       <c r="AE41" s="19"/>
@@ -6163,7 +6165,9 @@
         <v>48</v>
       </c>
       <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
+      <c r="AH41" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI41" s="21"/>
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
@@ -6181,7 +6185,7 @@
     </row>
     <row r="42">
       <c r="A42" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>48</v>
@@ -6189,70 +6193,70 @@
       <c r="C42" s="25">
         <v>245339.0</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="61">
         <v>44882.0</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F42" s="17"/>
-      <c r="G42" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N42" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R42" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="S42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA42" s="54" t="s">
+      <c r="G42" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA42" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB42" s="17"/>
-      <c r="AC42" s="63" t="s">
+      <c r="AC42" s="65" t="s">
         <v>108</v>
       </c>
       <c r="AD42" s="17"/>
@@ -6261,7 +6265,9 @@
         <v>48</v>
       </c>
       <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
+      <c r="AH42" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI42" s="21"/>
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
@@ -6278,75 +6284,75 @@
       <c r="AW42" s="21"/>
     </row>
     <row r="43">
-      <c r="A43" s="48" t="s">
-        <v>155</v>
+      <c r="A43" s="49" t="s">
+        <v>154</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="49">
         <v>245997.0</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="50">
         <v>44875.0</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="49" t="s">
         <v>67</v>
       </c>
       <c r="F43" s="36"/>
-      <c r="G43" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="M43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="N43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="S43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y43" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z43" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA43" s="48" t="s">
+      <c r="G43" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y43" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z43" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA43" s="49" t="s">
         <v>52</v>
       </c>
       <c r="AB43" s="36"/>
-      <c r="AC43" s="65" t="s">
+      <c r="AC43" s="67" t="s">
         <v>61</v>
       </c>
       <c r="AD43" s="36"/>
@@ -6357,7 +6363,9 @@
         <v>48</v>
       </c>
       <c r="AG43" s="40"/>
-      <c r="AH43" s="40"/>
+      <c r="AH43" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI43" s="40"/>
       <c r="AJ43" s="40"/>
       <c r="AK43" s="40"/>
@@ -6374,8 +6382,8 @@
       <c r="AW43" s="40"/>
     </row>
     <row r="44">
-      <c r="A44" s="66" t="s">
-        <v>156</v>
+      <c r="A44" s="68" t="s">
+        <v>155</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>48</v>
@@ -6383,17 +6391,17 @@
       <c r="C44" s="21">
         <v>236671.0</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="69">
         <v>44861.0</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="68" t="s">
         <v>59</v>
       </c>
       <c r="F44" s="17"/>
-      <c r="G44" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="69" t="s">
+      <c r="G44" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I44" s="21" t="s">
@@ -6457,7 +6465,9 @@
         <v>48</v>
       </c>
       <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
+      <c r="AH44" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI44" s="21"/>
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
@@ -6474,8 +6484,8 @@
       <c r="AW44" s="21"/>
     </row>
     <row r="45">
-      <c r="A45" s="66" t="s">
-        <v>157</v>
+      <c r="A45" s="68" t="s">
+        <v>156</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>48</v>
@@ -6483,17 +6493,17 @@
       <c r="C45" s="21">
         <v>247301.0</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="69">
         <v>44876.0</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="68" t="s">
         <v>67</v>
       </c>
       <c r="F45" s="17"/>
-      <c r="G45" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="69" t="s">
+      <c r="G45" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I45" s="21" t="s">
@@ -6557,7 +6567,9 @@
         <v>48</v>
       </c>
       <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
+      <c r="AH45" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI45" s="21"/>
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
@@ -6575,78 +6587,78 @@
     </row>
     <row r="46">
       <c r="A46" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="55">
         <v>239001.0</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="61">
         <v>44865.0</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F46" s="17"/>
-      <c r="G46" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L46" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" s="54" t="s">
+      <c r="G46" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="N46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54" t="s">
+      <c r="N46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="Q46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y46" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z46" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA46" s="54" t="s">
+      <c r="Q46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y46" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z46" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA46" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB46" s="17"/>
-      <c r="AC46" s="63" t="s">
+      <c r="AC46" s="65" t="s">
         <v>61</v>
       </c>
       <c r="AD46" s="17"/>
@@ -6655,7 +6667,9 @@
         <v>48</v>
       </c>
       <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
+      <c r="AH46" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI46" s="21"/>
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
@@ -6673,80 +6687,80 @@
     </row>
     <row r="47">
       <c r="A47" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="55">
         <v>240069.0</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="56">
         <v>44866.0</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F47" s="17"/>
-      <c r="G47" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O47" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R47" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y47" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z47" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA47" s="54" t="s">
+      <c r="G47" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R47" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y47" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z47" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA47" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB47" s="17"/>
-      <c r="AC47" s="63" t="s">
+      <c r="AC47" s="65" t="s">
         <v>61</v>
       </c>
       <c r="AD47" s="17"/>
@@ -6755,7 +6769,9 @@
         <v>48</v>
       </c>
       <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
+      <c r="AH47" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI47" s="21"/>
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
@@ -6773,80 +6789,80 @@
     </row>
     <row r="48">
       <c r="A48" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="55">
         <v>233689.0</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48" s="61">
         <v>44860.0</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="17"/>
-      <c r="G48" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O48" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R48" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA48" s="54" t="s">
+      <c r="G48" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O48" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA48" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB48" s="17"/>
-      <c r="AC48" s="63" t="s">
+      <c r="AC48" s="65" t="s">
         <v>53</v>
       </c>
       <c r="AD48" s="17"/>
@@ -6855,7 +6871,9 @@
         <v>48</v>
       </c>
       <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
+      <c r="AH48" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI48" s="21"/>
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
@@ -6873,23 +6891,23 @@
     </row>
     <row r="49">
       <c r="A49" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="54">
+        <v>48</v>
+      </c>
+      <c r="C49" s="55">
         <v>249632.0</v>
       </c>
-      <c r="D49" s="60">
+      <c r="D49" s="61">
         <v>44882.0</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="17"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56" t="s">
+      <c r="G49" s="57"/>
+      <c r="H49" s="57" t="s">
         <v>50</v>
       </c>
       <c r="I49" s="25" t="s">
@@ -6946,7 +6964,7 @@
         <v>52</v>
       </c>
       <c r="AB49" s="17"/>
-      <c r="AC49" s="63" t="s">
+      <c r="AC49" s="65" t="s">
         <v>53</v>
       </c>
       <c r="AD49" s="17"/>
@@ -6955,7 +6973,9 @@
         <v>48</v>
       </c>
       <c r="AG49" s="21"/>
-      <c r="AH49" s="21"/>
+      <c r="AH49" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI49" s="21"/>
       <c r="AJ49" s="21"/>
       <c r="AK49" s="21"/>
@@ -6973,82 +6993,82 @@
     </row>
     <row r="50">
       <c r="A50" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="54">
+      <c r="C50" s="55">
         <v>256496.0</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="61">
         <v>44887.0</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F50" s="17"/>
-      <c r="G50" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M50" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N50" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P50" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q50" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S50" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V50" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z50" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA50" s="54" t="s">
+      <c r="G50" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V50" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA50" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB50" s="17"/>
-      <c r="AC50" s="63" t="s">
+      <c r="AC50" s="65" t="s">
         <v>108</v>
       </c>
       <c r="AD50" s="17"/>
@@ -7059,7 +7079,9 @@
         <v>48</v>
       </c>
       <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
+      <c r="AH50" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI50" s="21"/>
       <c r="AJ50" s="21"/>
       <c r="AK50" s="21"/>
@@ -7077,84 +7099,84 @@
     </row>
     <row r="51">
       <c r="A51" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="55">
         <v>234217.0</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="61">
         <v>44858.0</v>
       </c>
       <c r="E51" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F51" s="17"/>
-      <c r="G51" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="M51" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N51" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P51" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="U51" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA51" s="54" t="s">
+      <c r="G51" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z51" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA51" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB51" s="17"/>
-      <c r="AC51" s="63" t="s">
+      <c r="AC51" s="65" t="s">
         <v>108</v>
       </c>
       <c r="AD51" s="17"/>
@@ -7165,7 +7187,9 @@
         <v>48</v>
       </c>
       <c r="AG51" s="21"/>
-      <c r="AH51" s="21"/>
+      <c r="AH51" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI51" s="21"/>
       <c r="AJ51" s="21"/>
       <c r="AK51" s="21"/>
@@ -7183,80 +7207,80 @@
     </row>
     <row r="52">
       <c r="A52" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="55">
         <v>231426.0</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52" s="61">
         <v>44853.0</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F52" s="17"/>
-      <c r="G52" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L52" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O52" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R52" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA52" s="54" t="s">
+      <c r="G52" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O52" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R52" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA52" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB52" s="17"/>
-      <c r="AC52" s="63" t="s">
+      <c r="AC52" s="65" t="s">
         <v>61</v>
       </c>
       <c r="AD52" s="17"/>
@@ -7265,7 +7289,9 @@
         <v>48</v>
       </c>
       <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
+      <c r="AH52" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI52" s="21"/>
       <c r="AJ52" s="21"/>
       <c r="AK52" s="21"/>
@@ -7283,80 +7309,80 @@
     </row>
     <row r="53">
       <c r="A53" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="55">
         <v>255066.0</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="61">
         <v>44886.0</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F53" s="17"/>
-      <c r="G53" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M53" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="N53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O53" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R53" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA53" s="54" t="s">
+      <c r="G53" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N53" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O53" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q53" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R53" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S53" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V53" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA53" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB53" s="17"/>
-      <c r="AC53" s="63" t="s">
+      <c r="AC53" s="65" t="s">
         <v>108</v>
       </c>
       <c r="AD53" s="17"/>
@@ -7367,7 +7393,9 @@
         <v>48</v>
       </c>
       <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
+      <c r="AH53" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI53" s="21"/>
       <c r="AJ53" s="21"/>
       <c r="AK53" s="21"/>
@@ -7385,80 +7413,80 @@
     </row>
     <row r="54">
       <c r="A54" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="54">
+      <c r="C54" s="55">
         <v>247748.0</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="61">
         <v>44876.0</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F54" s="17"/>
-      <c r="G54" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J54" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="54" t="s">
+      <c r="G54" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="L54" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M54" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N54" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O54" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P54" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q54" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="S54" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54" t="s">
+      <c r="L54" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q54" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R54" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S54" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="V54" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA54" s="54" t="s">
+      <c r="V54" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y54" s="55"/>
+      <c r="Z54" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA54" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB54" s="17"/>
-      <c r="AC54" s="59" t="s">
+      <c r="AC54" s="60" t="s">
         <v>61</v>
       </c>
       <c r="AD54" s="17"/>
@@ -7467,7 +7495,9 @@
         <v>48</v>
       </c>
       <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
+      <c r="AH54" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI54" s="21"/>
       <c r="AJ54" s="21"/>
       <c r="AK54" s="21"/>
@@ -7485,74 +7515,74 @@
     </row>
     <row r="55">
       <c r="A55" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="55">
         <v>247301.0</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="61">
         <v>44876.0</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F55" s="17"/>
-      <c r="G55" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="L55" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q55" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R55" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="S55" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54" t="s">
+      <c r="G55" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q55" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R55" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="S55" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="V55" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA55" s="54" t="s">
+      <c r="V55" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W55" s="55"/>
+      <c r="X55" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y55" s="55"/>
+      <c r="Z55" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA55" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB55" s="17"/>
-      <c r="AC55" s="59" t="s">
+      <c r="AC55" s="60" t="s">
         <v>61</v>
       </c>
       <c r="AD55" s="17"/>
@@ -7561,7 +7591,9 @@
         <v>48</v>
       </c>
       <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
+      <c r="AH55" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI55" s="21"/>
       <c r="AJ55" s="21"/>
       <c r="AK55" s="21"/>
@@ -7578,81 +7610,81 @@
       <c r="AW55" s="21"/>
     </row>
     <row r="56">
-      <c r="A56" s="70" t="s">
-        <v>171</v>
+      <c r="A56" s="72" t="s">
+        <v>169</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="58">
+      <c r="C56" s="59">
         <v>22720.0</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="56">
         <v>45690.0</v>
       </c>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="55" t="s">
         <v>59</v>
       </c>
       <c r="F56" s="17"/>
-      <c r="G56" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I56" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M56" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N56" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O56" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P56" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q56" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R56" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S56" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V56" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA56" s="54" t="s">
+      <c r="G56" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O56" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R56" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V56" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA56" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB56" s="17"/>
-      <c r="AC56" s="63" t="s">
+      <c r="AC56" s="65" t="s">
         <v>108</v>
       </c>
       <c r="AD56" s="17"/>
@@ -7661,7 +7693,9 @@
         <v>48</v>
       </c>
       <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
+      <c r="AH56" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI56" s="21"/>
       <c r="AJ56" s="21"/>
       <c r="AK56" s="21"/>
@@ -7678,81 +7712,81 @@
       <c r="AW56" s="21"/>
     </row>
     <row r="57">
-      <c r="A57" s="70" t="s">
-        <v>172</v>
+      <c r="A57" s="72" t="s">
+        <v>170</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="58">
+      <c r="C57" s="59">
         <v>26809.0</v>
       </c>
-      <c r="D57" s="55">
+      <c r="D57" s="56">
         <v>45695.0</v>
       </c>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="55" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="17"/>
-      <c r="G57" s="57" t="s">
+      <c r="G57" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="I57" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J57" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="N57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="O57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA57" s="54" t="s">
+      <c r="I57" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA57" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB57" s="17"/>
-      <c r="AC57" s="59" t="s">
+      <c r="AC57" s="60" t="s">
         <v>53</v>
       </c>
       <c r="AD57" s="17"/>
@@ -7761,7 +7795,9 @@
         <v>48</v>
       </c>
       <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
+      <c r="AH57" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI57" s="21"/>
       <c r="AJ57" s="21"/>
       <c r="AK57" s="21"/>
@@ -7778,81 +7814,81 @@
       <c r="AW57" s="21"/>
     </row>
     <row r="58">
-      <c r="A58" s="70" t="s">
-        <v>173</v>
+      <c r="A58" s="72" t="s">
+        <v>171</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="59">
         <v>25055.0</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="56">
         <v>45692.0</v>
       </c>
-      <c r="E58" s="54" t="s">
+      <c r="E58" s="55" t="s">
         <v>67</v>
       </c>
       <c r="F58" s="17"/>
-      <c r="G58" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="N58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="O58" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="R58" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="V58" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA58" s="54" t="s">
+      <c r="G58" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="O58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="S58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA58" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AB58" s="17"/>
-      <c r="AC58" s="59" t="s">
+      <c r="AC58" s="60" t="s">
         <v>53</v>
       </c>
       <c r="AD58" s="17"/>
@@ -7861,7 +7897,9 @@
         <v>48</v>
       </c>
       <c r="AG58" s="21"/>
-      <c r="AH58" s="21"/>
+      <c r="AH58" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI58" s="21"/>
       <c r="AJ58" s="21"/>
       <c r="AK58" s="21"/>
@@ -7878,27 +7916,29 @@
       <c r="AW58" s="21"/>
     </row>
     <row r="59">
-      <c r="A59" s="54" t="s">
-        <v>174</v>
+      <c r="A59" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="54">
+        <v>48</v>
+      </c>
+      <c r="C59" s="55">
         <v>46083.0</v>
       </c>
-      <c r="D59" s="71">
+      <c r="D59" s="73">
         <v>45723.0</v>
       </c>
-      <c r="E59" s="72" t="s">
+      <c r="E59" s="74" t="s">
         <v>59</v>
       </c>
       <c r="F59" s="17"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I59" s="72" t="s">
+      <c r="G59" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="74" t="s">
         <v>51</v>
       </c>
       <c r="J59" s="17"/>
@@ -7912,21 +7952,23 @@
       <c r="P59" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="T59" s="54"/>
-      <c r="U59" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
+      <c r="Q59" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="R59" s="55"/>
+      <c r="S59" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T59" s="55"/>
+      <c r="U59" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
       <c r="AB59" s="17"/>
       <c r="AC59" s="16" t="s">
         <v>53</v>
@@ -7937,7 +7979,9 @@
         <v>48</v>
       </c>
       <c r="AG59" s="21"/>
-      <c r="AH59" s="21"/>
+      <c r="AH59" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI59" s="21"/>
       <c r="AJ59" s="21"/>
       <c r="AK59" s="21"/>
@@ -7955,29 +7999,29 @@
       <c r="AW59" s="21"/>
     </row>
     <row r="60">
-      <c r="A60" s="54" t="s">
-        <v>175</v>
+      <c r="A60" s="55" t="s">
+        <v>173</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="54">
+        <v>48</v>
+      </c>
+      <c r="C60" s="55">
         <v>50641.0</v>
       </c>
-      <c r="D60" s="73">
+      <c r="D60" s="76">
         <v>45731.0</v>
       </c>
-      <c r="E60" s="74" t="s">
+      <c r="E60" s="77" t="s">
         <v>67</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="72" t="s">
+      <c r="H60" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="74" t="s">
         <v>51</v>
       </c>
       <c r="J60" s="16" t="s">
@@ -8001,37 +8045,37 @@
       <c r="P60" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q60" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="R60" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="S60" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="T60" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="U60" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="V60" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="W60" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="X60" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y60" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z60" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA60" s="72" t="s">
+      <c r="Q60" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="R60" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="S60" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T60" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U60" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="V60" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="W60" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="X60" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y60" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z60" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA60" s="74" t="s">
         <v>52</v>
       </c>
       <c r="AB60" s="17"/>
@@ -8044,7 +8088,9 @@
         <v>48</v>
       </c>
       <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
+      <c r="AH60" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI60" s="21"/>
       <c r="AJ60" s="21"/>
       <c r="AK60" s="21"/>
@@ -8062,29 +8108,29 @@
       <c r="AW60" s="21"/>
     </row>
     <row r="61">
-      <c r="A61" s="54" t="s">
-        <v>176</v>
+      <c r="A61" s="55" t="s">
+        <v>174</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="54">
+        <v>48</v>
+      </c>
+      <c r="C61" s="55">
         <v>46071.0</v>
       </c>
-      <c r="D61" s="73">
+      <c r="D61" s="76">
         <v>45723.0</v>
       </c>
-      <c r="E61" s="74" t="s">
+      <c r="E61" s="77" t="s">
         <v>67</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="72" t="s">
+      <c r="H61" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J61" s="16" t="s">
@@ -8108,37 +8154,37 @@
       <c r="P61" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q61" s="72" t="s">
+      <c r="Q61" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="R61" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="S61" s="72" t="s">
+      <c r="R61" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="S61" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="T61" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="U61" s="72" t="s">
+      <c r="T61" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="V61" s="72" t="s">
+      <c r="V61" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="W61" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="X61" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y61" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z61" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA61" s="72" t="s">
+      <c r="W61" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="X61" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y61" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z61" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA61" s="74" t="s">
         <v>52</v>
       </c>
       <c r="AB61" s="17"/>
@@ -8151,7 +8197,9 @@
         <v>48</v>
       </c>
       <c r="AG61" s="21"/>
-      <c r="AH61" s="21"/>
+      <c r="AH61" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI61" s="21"/>
       <c r="AJ61" s="21"/>
       <c r="AK61" s="21"/>
@@ -8169,29 +8217,29 @@
       <c r="AW61" s="21"/>
     </row>
     <row r="62">
-      <c r="A62" s="54" t="s">
-        <v>177</v>
+      <c r="A62" s="55" t="s">
+        <v>175</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="54">
+        <v>48</v>
+      </c>
+      <c r="C62" s="55">
         <v>32454.0</v>
       </c>
-      <c r="D62" s="73">
+      <c r="D62" s="76">
         <v>45702.0</v>
       </c>
-      <c r="E62" s="74" t="s">
-        <v>178</v>
+      <c r="E62" s="77" t="s">
+        <v>176</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H62" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" s="72" t="s">
+      <c r="H62" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" s="74" t="s">
         <v>51</v>
       </c>
       <c r="J62" s="16" t="s">
@@ -8215,37 +8263,37 @@
       <c r="P62" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q62" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="R62" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="S62" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="T62" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="U62" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="V62" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="W62" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="X62" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y62" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z62" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA62" s="72" t="s">
+      <c r="Q62" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="R62" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="S62" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T62" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="V62" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="W62" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="X62" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y62" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z62" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA62" s="74" t="s">
         <v>52</v>
       </c>
       <c r="AB62" s="17"/>
@@ -8258,7 +8306,9 @@
         <v>48</v>
       </c>
       <c r="AG62" s="21"/>
-      <c r="AH62" s="21"/>
+      <c r="AH62" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI62" s="21"/>
       <c r="AJ62" s="21"/>
       <c r="AK62" s="21"/>
@@ -8276,29 +8326,29 @@
       <c r="AW62" s="21"/>
     </row>
     <row r="63">
-      <c r="A63" s="54" t="s">
-        <v>179</v>
+      <c r="A63" s="55" t="s">
+        <v>177</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="54">
+        <v>48</v>
+      </c>
+      <c r="C63" s="55">
         <v>50696.0</v>
       </c>
-      <c r="D63" s="73">
+      <c r="D63" s="76">
         <v>45729.0</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="77" t="s">
         <v>67</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" s="72" t="s">
+      <c r="H63" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J63" s="16" t="s">
@@ -8322,37 +8372,37 @@
       <c r="P63" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q63" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="R63" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="S63" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="T63" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="U63" s="72" t="s">
+      <c r="Q63" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="R63" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="S63" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T63" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U63" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="V63" s="72" t="s">
+      <c r="V63" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="X63" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y63" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z63" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA63" s="72" t="s">
+      <c r="W63" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="X63" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y63" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z63" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA63" s="74" t="s">
         <v>52</v>
       </c>
       <c r="AB63" s="17"/>
@@ -8365,7 +8415,9 @@
         <v>48</v>
       </c>
       <c r="AG63" s="21"/>
-      <c r="AH63" s="21"/>
+      <c r="AH63" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI63" s="21"/>
       <c r="AJ63" s="21"/>
       <c r="AK63" s="21"/>
@@ -8383,29 +8435,29 @@
       <c r="AW63" s="21"/>
     </row>
     <row r="64">
-      <c r="A64" s="54" t="s">
-        <v>180</v>
+      <c r="A64" s="55" t="s">
+        <v>178</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="54">
+        <v>48</v>
+      </c>
+      <c r="C64" s="55">
         <v>39141.0</v>
       </c>
-      <c r="D64" s="73">
+      <c r="D64" s="76">
         <v>45712.0</v>
       </c>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="77" t="s">
         <v>67</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H64" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" s="72" t="s">
+      <c r="H64" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J64" s="16" t="s">
@@ -8429,37 +8481,37 @@
       <c r="P64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q64" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="R64" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="S64" s="72" t="s">
+      <c r="Q64" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="R64" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="S64" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="T64" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="U64" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="V64" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="W64" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="X64" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y64" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z64" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA64" s="72" t="s">
+      <c r="T64" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="V64" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="W64" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="X64" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y64" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z64" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA64" s="74" t="s">
         <v>52</v>
       </c>
       <c r="AB64" s="17"/>
@@ -8472,7 +8524,9 @@
         <v>48</v>
       </c>
       <c r="AG64" s="21"/>
-      <c r="AH64" s="21"/>
+      <c r="AH64" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI64" s="21"/>
       <c r="AJ64" s="21"/>
       <c r="AK64" s="21"/>
@@ -8490,29 +8544,29 @@
       <c r="AW64" s="21"/>
     </row>
     <row r="65">
-      <c r="A65" s="54" t="s">
-        <v>181</v>
+      <c r="A65" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="54">
+        <v>48</v>
+      </c>
+      <c r="C65" s="55">
         <v>34074.0</v>
       </c>
-      <c r="D65" s="73">
+      <c r="D65" s="76">
         <v>45705.0</v>
       </c>
-      <c r="E65" s="74" t="s">
-        <v>178</v>
+      <c r="E65" s="77" t="s">
+        <v>176</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" s="72" t="s">
+      <c r="H65" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="16" t="s">
@@ -8569,7 +8623,7 @@
       </c>
       <c r="AB65" s="17"/>
       <c r="AC65" s="16" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="AD65" s="17"/>
       <c r="AE65" s="19"/>
@@ -8577,7 +8631,9 @@
         <v>48</v>
       </c>
       <c r="AG65" s="21"/>
-      <c r="AH65" s="21"/>
+      <c r="AH65" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI65" s="21"/>
       <c r="AJ65" s="21"/>
       <c r="AK65" s="21"/>
@@ -8595,29 +8651,29 @@
       <c r="AW65" s="21"/>
     </row>
     <row r="66">
-      <c r="A66" s="54" t="s">
-        <v>183</v>
+      <c r="A66" s="55" t="s">
+        <v>180</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="54">
+        <v>48</v>
+      </c>
+      <c r="C66" s="55">
         <v>47936.0</v>
       </c>
-      <c r="D66" s="73">
+      <c r="D66" s="76">
         <v>45726.0</v>
       </c>
-      <c r="E66" s="74" t="s">
+      <c r="E66" s="77" t="s">
         <v>67</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" s="72" t="s">
+      <c r="H66" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J66" s="16" t="s">
@@ -8682,7 +8738,9 @@
         <v>48</v>
       </c>
       <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
+      <c r="AH66" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI66" s="21"/>
       <c r="AJ66" s="21"/>
       <c r="AK66" s="21"/>
@@ -8700,29 +8758,29 @@
       <c r="AW66" s="21"/>
     </row>
     <row r="67">
-      <c r="A67" s="54" t="s">
-        <v>184</v>
+      <c r="A67" s="55" t="s">
+        <v>181</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="54">
+        <v>48</v>
+      </c>
+      <c r="C67" s="55">
         <v>44227.0</v>
       </c>
-      <c r="D67" s="73">
+      <c r="D67" s="76">
         <v>45721.0</v>
       </c>
-      <c r="E67" s="74" t="s">
+      <c r="E67" s="77" t="s">
         <v>59</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="H67" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I67" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="H67" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J67" s="16" t="s">
@@ -8789,7 +8847,9 @@
         <v>48</v>
       </c>
       <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
+      <c r="AH67" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI67" s="21"/>
       <c r="AJ67" s="21"/>
       <c r="AK67" s="21"/>
@@ -8807,29 +8867,29 @@
       <c r="AW67" s="21"/>
     </row>
     <row r="68">
-      <c r="A68" s="54" t="s">
-        <v>186</v>
+      <c r="A68" s="55" t="s">
+        <v>183</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="54">
+        <v>48</v>
+      </c>
+      <c r="C68" s="55">
         <v>45733.0</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D68" s="76">
         <v>45723.0</v>
       </c>
-      <c r="E68" s="74" t="s">
+      <c r="E68" s="77" t="s">
         <v>67</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H68" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I68" s="72" t="s">
+      <c r="H68" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I68" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J68" s="16" t="s">
@@ -8896,7 +8956,9 @@
         <v>48</v>
       </c>
       <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
+      <c r="AH68" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI68" s="21"/>
       <c r="AJ68" s="21"/>
       <c r="AK68" s="21"/>
@@ -8914,29 +8976,29 @@
       <c r="AW68" s="21"/>
     </row>
     <row r="69">
-      <c r="A69" s="54" t="s">
-        <v>187</v>
+      <c r="A69" s="55" t="s">
+        <v>184</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="54">
+        <v>48</v>
+      </c>
+      <c r="C69" s="55">
         <v>49055.0</v>
       </c>
-      <c r="D69" s="73">
+      <c r="D69" s="76">
         <v>45727.0</v>
       </c>
-      <c r="E69" s="74" t="s">
+      <c r="E69" s="77" t="s">
         <v>67</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H69" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" s="72" t="s">
+      <c r="H69" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" s="74" t="s">
         <v>51</v>
       </c>
       <c r="J69" s="16" t="s">
@@ -9003,7 +9065,9 @@
         <v>48</v>
       </c>
       <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
+      <c r="AH69" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI69" s="21"/>
       <c r="AJ69" s="21"/>
       <c r="AK69" s="21"/>
@@ -9021,29 +9085,29 @@
       <c r="AW69" s="21"/>
     </row>
     <row r="70">
-      <c r="A70" s="54" t="s">
-        <v>188</v>
+      <c r="A70" s="55" t="s">
+        <v>185</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="54">
+        <v>48</v>
+      </c>
+      <c r="C70" s="55">
         <v>47002.0</v>
       </c>
-      <c r="D70" s="73">
+      <c r="D70" s="76">
         <v>45725.0</v>
       </c>
-      <c r="E70" s="74" t="s">
-        <v>189</v>
+      <c r="E70" s="77" t="s">
+        <v>186</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H70" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I70" s="72" t="s">
+      <c r="H70" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="74" t="s">
         <v>51</v>
       </c>
       <c r="J70" s="16" t="s">
@@ -9110,7 +9174,9 @@
         <v>48</v>
       </c>
       <c r="AG70" s="21"/>
-      <c r="AH70" s="21"/>
+      <c r="AH70" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI70" s="21"/>
       <c r="AJ70" s="21"/>
       <c r="AK70" s="21"/>
@@ -9128,29 +9194,29 @@
       <c r="AW70" s="21"/>
     </row>
     <row r="71">
-      <c r="A71" s="54" t="s">
-        <v>190</v>
+      <c r="A71" s="55" t="s">
+        <v>187</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" s="54">
+        <v>48</v>
+      </c>
+      <c r="C71" s="55">
         <v>46186.0</v>
       </c>
-      <c r="D71" s="73">
+      <c r="D71" s="76">
         <v>45728.0</v>
       </c>
-      <c r="E71" s="74" t="s">
-        <v>191</v>
+      <c r="E71" s="77" t="s">
+        <v>67</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I71" s="72" t="s">
+      <c r="H71" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="74" t="s">
         <v>55</v>
       </c>
       <c r="J71" s="16" t="s">
@@ -9217,7 +9283,9 @@
         <v>48</v>
       </c>
       <c r="AG71" s="21"/>
-      <c r="AH71" s="21"/>
+      <c r="AH71" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI71" s="21"/>
       <c r="AJ71" s="21"/>
       <c r="AK71" s="21"/>
@@ -9235,8 +9303,8 @@
       <c r="AW71" s="21"/>
     </row>
     <row r="72">
-      <c r="A72" s="66" t="s">
-        <v>192</v>
+      <c r="A72" s="68" t="s">
+        <v>188</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>48</v>
@@ -9244,17 +9312,17 @@
       <c r="C72" s="21">
         <v>45241.0</v>
       </c>
-      <c r="D72" s="76">
+      <c r="D72" s="78">
         <v>45722.0</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F72" s="17"/>
-      <c r="G72" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" s="69" t="s">
+      <c r="G72" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I72" s="20" t="s">
@@ -9324,7 +9392,9 @@
         <v>48</v>
       </c>
       <c r="AG72" s="21"/>
-      <c r="AH72" s="21"/>
+      <c r="AH72" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI72" s="21"/>
       <c r="AJ72" s="21"/>
       <c r="AK72" s="21"/>
@@ -9342,8 +9412,8 @@
       <c r="AW72" s="21"/>
     </row>
     <row r="73">
-      <c r="A73" s="66" t="s">
-        <v>193</v>
+      <c r="A73" s="68" t="s">
+        <v>189</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>48</v>
@@ -9351,17 +9421,17 @@
       <c r="C73" s="21">
         <v>44154.0</v>
       </c>
-      <c r="D73" s="76">
+      <c r="D73" s="78">
         <v>45721.0</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F73" s="17"/>
-      <c r="G73" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="69" t="s">
+      <c r="G73" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I73" s="20" t="s">
@@ -9431,7 +9501,9 @@
         <v>48</v>
       </c>
       <c r="AG73" s="21"/>
-      <c r="AH73" s="21"/>
+      <c r="AH73" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI73" s="21"/>
       <c r="AJ73" s="21"/>
       <c r="AK73" s="21"/>
@@ -9449,8 +9521,8 @@
       <c r="AW73" s="21"/>
     </row>
     <row r="74">
-      <c r="A74" s="66" t="s">
-        <v>194</v>
+      <c r="A74" s="68" t="s">
+        <v>190</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>48</v>
@@ -9465,11 +9537,11 @@
         <v>67</v>
       </c>
       <c r="F74" s="17"/>
-      <c r="G74" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="H74" s="69" t="s">
-        <v>195</v>
+      <c r="G74" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" s="71" t="s">
+        <v>191</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>52</v>
@@ -9484,7 +9556,7 @@
         <v>52</v>
       </c>
       <c r="M74" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N74" s="16" t="s">
         <v>60</v>
@@ -9538,7 +9610,9 @@
         <v>48</v>
       </c>
       <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
+      <c r="AH74" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI74" s="21"/>
       <c r="AJ74" s="21"/>
       <c r="AK74" s="21"/>
@@ -9556,8 +9630,8 @@
       <c r="AW74" s="21"/>
     </row>
     <row r="75">
-      <c r="A75" s="66" t="s">
-        <v>197</v>
+      <c r="A75" s="68" t="s">
+        <v>193</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>48</v>
@@ -9572,10 +9646,10 @@
         <v>67</v>
       </c>
       <c r="F75" s="17"/>
-      <c r="G75" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" s="69" t="s">
+      <c r="G75" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I75" s="16" t="s">
@@ -9645,7 +9719,9 @@
         <v>48</v>
       </c>
       <c r="AG75" s="21"/>
-      <c r="AH75" s="21"/>
+      <c r="AH75" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI75" s="21"/>
       <c r="AJ75" s="21"/>
       <c r="AK75" s="21"/>
@@ -9663,8 +9739,8 @@
       <c r="AW75" s="21"/>
     </row>
     <row r="76">
-      <c r="A76" s="66" t="s">
-        <v>198</v>
+      <c r="A76" s="68" t="s">
+        <v>194</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>48</v>
@@ -9679,10 +9755,10 @@
         <v>59</v>
       </c>
       <c r="F76" s="17"/>
-      <c r="G76" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H76" s="69" t="s">
+      <c r="G76" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I76" s="16" t="s">
@@ -9752,7 +9828,9 @@
         <v>48</v>
       </c>
       <c r="AG76" s="21"/>
-      <c r="AH76" s="21"/>
+      <c r="AH76" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI76" s="21"/>
       <c r="AJ76" s="21"/>
       <c r="AK76" s="21"/>
@@ -9770,8 +9848,8 @@
       <c r="AW76" s="21"/>
     </row>
     <row r="77">
-      <c r="A77" s="66" t="s">
-        <v>199</v>
+      <c r="A77" s="68" t="s">
+        <v>195</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>48</v>
@@ -9786,10 +9864,10 @@
         <v>59</v>
       </c>
       <c r="F77" s="17"/>
-      <c r="G77" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H77" s="69" t="s">
+      <c r="G77" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I77" s="16" t="s">
@@ -9853,7 +9931,9 @@
         <v>48</v>
       </c>
       <c r="AG77" s="21"/>
-      <c r="AH77" s="21"/>
+      <c r="AH77" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI77" s="21"/>
       <c r="AJ77" s="21"/>
       <c r="AK77" s="21"/>
@@ -9871,13 +9951,13 @@
       <c r="AW77" s="21"/>
     </row>
     <row r="78">
-      <c r="A78" s="54" t="s">
-        <v>200</v>
+      <c r="A78" s="55" t="s">
+        <v>196</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="54">
+        <v>48</v>
+      </c>
+      <c r="C78" s="55">
         <v>42454.0</v>
       </c>
       <c r="D78" s="29">
@@ -9890,7 +9970,7 @@
       <c r="G78" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H78" s="57" t="s">
+      <c r="H78" s="58" t="s">
         <v>50</v>
       </c>
       <c r="I78" s="16" t="s">
@@ -9960,7 +10040,9 @@
         <v>48</v>
       </c>
       <c r="AG78" s="21"/>
-      <c r="AH78" s="21"/>
+      <c r="AH78" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI78" s="21"/>
       <c r="AJ78" s="21"/>
       <c r="AK78" s="21"/>
@@ -9978,8 +10060,8 @@
       <c r="AW78" s="21"/>
     </row>
     <row r="79">
-      <c r="A79" s="66" t="s">
-        <v>201</v>
+      <c r="A79" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>48</v>
@@ -9994,10 +10076,10 @@
         <v>59</v>
       </c>
       <c r="F79" s="17"/>
-      <c r="G79" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="69" t="s">
+      <c r="G79" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="71" t="s">
         <v>50</v>
       </c>
       <c r="I79" s="16" t="s">
@@ -10067,7 +10149,9 @@
         <v>48</v>
       </c>
       <c r="AG79" s="21"/>
-      <c r="AH79" s="21"/>
+      <c r="AH79" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI79" s="21"/>
       <c r="AJ79" s="21"/>
       <c r="AK79" s="21"/>
@@ -10085,13 +10169,13 @@
       <c r="AW79" s="21"/>
     </row>
     <row r="80">
-      <c r="A80" s="54" t="s">
-        <v>202</v>
+      <c r="A80" s="55" t="s">
+        <v>198</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="54">
+        <v>199</v>
+      </c>
+      <c r="C80" s="55">
         <v>31250.0</v>
       </c>
       <c r="D80" s="29">
@@ -10104,7 +10188,7 @@
       <c r="G80" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H80" s="57" t="s">
+      <c r="H80" s="58" t="s">
         <v>50</v>
       </c>
       <c r="I80" s="16" t="s">
@@ -10174,7 +10258,7 @@
         <v>48</v>
       </c>
       <c r="AG80" s="21"/>
-      <c r="AH80" s="21"/>
+      <c r="AH80" s="20"/>
       <c r="AI80" s="21"/>
       <c r="AJ80" s="21"/>
       <c r="AK80" s="21"/>
@@ -10192,8 +10276,8 @@
       <c r="AW80" s="21"/>
     </row>
     <row r="81">
-      <c r="A81" s="66" t="s">
-        <v>203</v>
+      <c r="A81" s="68" t="s">
+        <v>200</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>48</v>
@@ -10205,13 +10289,13 @@
         <v>45717.0</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F81" s="17"/>
-      <c r="G81" s="69" t="s">
+      <c r="G81" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="H81" s="69" t="s">
+      <c r="H81" s="71" t="s">
         <v>131</v>
       </c>
       <c r="I81" s="16" t="s">
@@ -10281,7 +10365,9 @@
         <v>48</v>
       </c>
       <c r="AG81" s="21"/>
-      <c r="AH81" s="21"/>
+      <c r="AH81" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI81" s="21"/>
       <c r="AJ81" s="21"/>
       <c r="AK81" s="21"/>
@@ -10300,12 +10386,12 @@
     </row>
     <row r="82">
       <c r="A82" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="54">
+        <v>199</v>
+      </c>
+      <c r="C82" s="55">
         <v>42846.0</v>
       </c>
       <c r="D82" s="29">
@@ -10318,7 +10404,7 @@
       <c r="G82" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="H82" s="57" t="s">
+      <c r="H82" s="58" t="s">
         <v>50</v>
       </c>
       <c r="I82" s="16" t="s">
@@ -10373,7 +10459,7 @@
         <v>52</v>
       </c>
       <c r="Z82" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AA82" s="16" t="s">
         <v>52</v>
@@ -10388,7 +10474,9 @@
         <v>48</v>
       </c>
       <c r="AG82" s="21"/>
-      <c r="AH82" s="21"/>
+      <c r="AH82" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI82" s="21"/>
       <c r="AJ82" s="21"/>
       <c r="AK82" s="21"/>
@@ -10406,50 +10494,80 @@
       <c r="AW82" s="21"/>
     </row>
     <row r="83">
-      <c r="A83" s="66" t="s">
-        <v>206</v>
+      <c r="A83" s="68" t="s">
+        <v>203</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="66">
-        <v>65247.0</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="77"/>
+      <c r="C83" s="68">
+        <v>87944.0</v>
+      </c>
+      <c r="D83" s="29">
+        <v>45414.0</v>
+      </c>
+      <c r="E83" s="79" t="s">
+        <v>204</v>
+      </c>
       <c r="F83" s="17"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="I83" s="17"/>
+      <c r="G83" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H83" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
+      <c r="K83" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N83" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="P83" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q83" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
+      <c r="S83" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
+      <c r="U83" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="V83" s="17"/>
       <c r="W83" s="17"/>
-      <c r="X83" s="17"/>
+      <c r="X83" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="Y83" s="17"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="17"/>
       <c r="AB83" s="17"/>
-      <c r="AC83" s="17"/>
+      <c r="AC83" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AD83" s="17"/>
       <c r="AE83" s="19"/>
       <c r="AF83" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AG83" s="21"/>
-      <c r="AH83" s="21"/>
+      <c r="AH83" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI83" s="21"/>
       <c r="AJ83" s="21"/>
       <c r="AK83" s="21"/>
@@ -10467,68 +10585,64 @@
       <c r="AW83" s="21"/>
     </row>
     <row r="84">
-      <c r="A84" s="66" t="s">
-        <v>207</v>
+      <c r="A84" s="68" t="s">
+        <v>205</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="66">
-        <v>87944.0</v>
+      <c r="C84" s="68">
+        <v>137428.0</v>
       </c>
       <c r="D84" s="29">
-        <v>45414.0</v>
-      </c>
-      <c r="E84" s="80" t="s">
-        <v>208</v>
+        <v>45850.0</v>
+      </c>
+      <c r="E84" s="79" t="s">
+        <v>59</v>
       </c>
       <c r="F84" s="17"/>
-      <c r="G84" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="H84" s="79" t="s">
-        <v>50</v>
+      <c r="G84" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" s="81" t="s">
+        <v>131</v>
       </c>
       <c r="I84" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J84" s="17"/>
-      <c r="K84" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L84" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M84" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N84" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="J84" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="P84" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q84" s="17"/>
+      <c r="Q84" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="R84" s="17"/>
-      <c r="S84" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="S84" s="17"/>
       <c r="T84" s="17"/>
       <c r="U84" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
-      <c r="X84" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="V84" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W84" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="17"/>
       <c r="AB84" s="17"/>
       <c r="AC84" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AD84" s="17"/>
       <c r="AE84" s="19"/>
@@ -10536,7 +10650,9 @@
         <v>48</v>
       </c>
       <c r="AG84" s="21"/>
-      <c r="AH84" s="21"/>
+      <c r="AH84" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI84" s="21"/>
       <c r="AJ84" s="21"/>
       <c r="AK84" s="21"/>
@@ -10554,33 +10670,33 @@
       <c r="AW84" s="21"/>
     </row>
     <row r="85">
-      <c r="A85" s="66" t="s">
-        <v>209</v>
+      <c r="A85" s="68" t="s">
+        <v>206</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="66">
-        <v>137428.0</v>
+      <c r="C85" s="68">
+        <v>137924.0</v>
       </c>
       <c r="D85" s="29">
-        <v>45850.0</v>
-      </c>
-      <c r="E85" s="80" t="s">
+        <v>45847.0</v>
+      </c>
+      <c r="E85" s="79" t="s">
         <v>59</v>
       </c>
       <c r="F85" s="17"/>
-      <c r="G85" s="81" t="s">
+      <c r="G85" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="H85" s="79" t="s">
+      <c r="H85" s="81" t="s">
         <v>131</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
@@ -10590,28 +10706,26 @@
       <c r="P85" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q85" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q85" s="17"/>
       <c r="R85" s="17"/>
       <c r="S85" s="17"/>
       <c r="T85" s="17"/>
       <c r="U85" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V85" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="V85" s="17"/>
       <c r="W85" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="X85" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="X85" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="Y85" s="17"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="17"/>
       <c r="AB85" s="17"/>
       <c r="AC85" s="16" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="AD85" s="17"/>
       <c r="AE85" s="19"/>
@@ -10619,7 +10733,9 @@
         <v>48</v>
       </c>
       <c r="AG85" s="21"/>
-      <c r="AH85" s="21"/>
+      <c r="AH85" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI85" s="21"/>
       <c r="AJ85" s="21"/>
       <c r="AK85" s="21"/>
@@ -10637,53 +10753,59 @@
       <c r="AW85" s="21"/>
     </row>
     <row r="86">
-      <c r="A86" s="66" t="s">
-        <v>210</v>
+      <c r="A86" s="68" t="s">
+        <v>207</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="66">
-        <v>137924.0</v>
+      <c r="C86" s="21">
+        <v>134828.0</v>
       </c>
       <c r="D86" s="29">
-        <v>45847.0</v>
-      </c>
-      <c r="E86" s="80" t="s">
+        <v>45844.0</v>
+      </c>
+      <c r="E86" s="79" t="s">
         <v>59</v>
       </c>
       <c r="F86" s="17"/>
-      <c r="G86" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="H86" s="79" t="s">
-        <v>131</v>
+      <c r="G86" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="81" t="s">
+        <v>50</v>
       </c>
       <c r="I86" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J86" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
+      <c r="M86" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N86" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="O86" s="17"/>
       <c r="P86" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q86" s="17"/>
+      <c r="Q86" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
+      <c r="S86" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="T86" s="17"/>
       <c r="U86" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V86" s="17"/>
-      <c r="W86" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="V86" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W86" s="17"/>
       <c r="X86" s="16" t="s">
         <v>55</v>
       </c>
@@ -10692,7 +10814,7 @@
       <c r="AA86" s="17"/>
       <c r="AB86" s="17"/>
       <c r="AC86" s="16" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="AD86" s="17"/>
       <c r="AE86" s="19"/>
@@ -10700,7 +10822,9 @@
         <v>48</v>
       </c>
       <c r="AG86" s="21"/>
-      <c r="AH86" s="21"/>
+      <c r="AH86" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI86" s="21"/>
       <c r="AJ86" s="21"/>
       <c r="AK86" s="21"/>
@@ -10718,26 +10842,26 @@
       <c r="AW86" s="21"/>
     </row>
     <row r="87">
-      <c r="A87" s="66" t="s">
-        <v>212</v>
+      <c r="A87" s="68" t="s">
+        <v>208</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C87" s="21">
-        <v>134828.0</v>
+        <v>139330.0</v>
       </c>
       <c r="D87" s="29">
-        <v>45844.0</v>
-      </c>
-      <c r="E87" s="80" t="s">
-        <v>59</v>
+        <v>45849.0</v>
+      </c>
+      <c r="E87" s="79" t="s">
+        <v>67</v>
       </c>
       <c r="F87" s="17"/>
-      <c r="G87" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" s="79" t="s">
+      <c r="G87" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I87" s="16" t="s">
@@ -10754,10 +10878,10 @@
       </c>
       <c r="O87" s="17"/>
       <c r="P87" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R87" s="17"/>
       <c r="S87" s="16" t="s">
@@ -10771,9 +10895,7 @@
         <v>51</v>
       </c>
       <c r="W87" s="17"/>
-      <c r="X87" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="17"/>
       <c r="AA87" s="17"/>
@@ -10787,7 +10909,9 @@
         <v>48</v>
       </c>
       <c r="AG87" s="21"/>
-      <c r="AH87" s="21"/>
+      <c r="AH87" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI87" s="21"/>
       <c r="AJ87" s="21"/>
       <c r="AK87" s="21"/>
@@ -10805,26 +10929,26 @@
       <c r="AW87" s="21"/>
     </row>
     <row r="88">
-      <c r="A88" s="66" t="s">
-        <v>213</v>
+      <c r="A88" s="68" t="s">
+        <v>209</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C88" s="21">
-        <v>139330.0</v>
+        <v>139106.0</v>
       </c>
       <c r="D88" s="29">
         <v>45849.0</v>
       </c>
-      <c r="E88" s="80" t="s">
+      <c r="E88" s="79" t="s">
         <v>67</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="H88" s="79" t="s">
+      <c r="H88" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I88" s="16" t="s">
@@ -10837,16 +10961,18 @@
         <v>51</v>
       </c>
       <c r="N88" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="O88" s="17"/>
       <c r="P88" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="R88" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="R88" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="S88" s="16" t="s">
         <v>51</v>
       </c>
@@ -10858,7 +10984,9 @@
         <v>51</v>
       </c>
       <c r="W88" s="17"/>
-      <c r="X88" s="17"/>
+      <c r="X88" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
       <c r="AA88" s="17"/>
@@ -10872,7 +11000,9 @@
         <v>48</v>
       </c>
       <c r="AG88" s="21"/>
-      <c r="AH88" s="21"/>
+      <c r="AH88" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI88" s="21"/>
       <c r="AJ88" s="21"/>
       <c r="AK88" s="21"/>
@@ -10890,26 +11020,26 @@
       <c r="AW88" s="21"/>
     </row>
     <row r="89">
-      <c r="A89" s="66" t="s">
-        <v>214</v>
+      <c r="A89" s="68" t="s">
+        <v>210</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C89" s="21">
-        <v>139106.0</v>
+        <v>139413.0</v>
       </c>
       <c r="D89" s="29">
         <v>45849.0</v>
       </c>
-      <c r="E89" s="80" t="s">
+      <c r="E89" s="79" t="s">
         <v>67</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="H89" s="79" t="s">
+      <c r="H89" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I89" s="16" t="s">
@@ -10921,28 +11051,24 @@
       <c r="M89" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N89" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="N89" s="17"/>
       <c r="O89" s="17"/>
       <c r="P89" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="R89" s="16" t="s">
-        <v>55</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="R89" s="17"/>
       <c r="S89" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T89" s="17"/>
       <c r="U89" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="V89" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="W89" s="17"/>
       <c r="X89" s="16" t="s">
@@ -10961,7 +11087,9 @@
         <v>48</v>
       </c>
       <c r="AG89" s="21"/>
-      <c r="AH89" s="21"/>
+      <c r="AH89" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI89" s="21"/>
       <c r="AJ89" s="21"/>
       <c r="AK89" s="21"/>
@@ -10979,63 +11107,85 @@
       <c r="AW89" s="21"/>
     </row>
     <row r="90">
-      <c r="A90" s="66" t="s">
-        <v>215</v>
+      <c r="A90" s="68" t="s">
+        <v>211</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="21">
-        <v>139413.0</v>
+      <c r="C90" s="20">
+        <v>139465.0</v>
       </c>
       <c r="D90" s="29">
-        <v>45849.0</v>
-      </c>
-      <c r="E90" s="80" t="s">
-        <v>67</v>
+        <v>45850.0</v>
+      </c>
+      <c r="E90" s="79" t="s">
+        <v>212</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="H90" s="79" t="s">
+      <c r="H90" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="M90" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
+      <c r="N90" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O90" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P90" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="R90" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="R90" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="S90" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="T90" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="T90" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="U90" s="16" t="s">
         <v>60</v>
       </c>
       <c r="V90" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="W90" s="17"/>
+      <c r="W90" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="X90" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Y90" s="17"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="17"/>
+      <c r="Y90" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z90" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA90" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="AB90" s="17"/>
       <c r="AC90" s="16" t="s">
         <v>61</v>
@@ -11046,7 +11196,9 @@
         <v>48</v>
       </c>
       <c r="AG90" s="21"/>
-      <c r="AH90" s="21"/>
+      <c r="AH90" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI90" s="21"/>
       <c r="AJ90" s="21"/>
       <c r="AK90" s="21"/>
@@ -11064,87 +11216,115 @@
       <c r="AW90" s="21"/>
     </row>
     <row r="91">
-      <c r="A91" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="20">
-        <v>139465.0</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="77"/>
+      <c r="A91" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="21">
+        <v>111211.0</v>
+      </c>
+      <c r="D91" s="29">
+        <v>45810.0</v>
+      </c>
+      <c r="E91" s="79" t="s">
+        <v>59</v>
+      </c>
       <c r="F91" s="17"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="I91" s="17"/>
+      <c r="G91" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
+      <c r="M91" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N91" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="P91" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q91" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
+      <c r="S91" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
+      <c r="U91" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="V91" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
+      <c r="X91" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="Y91" s="17"/>
       <c r="Z91" s="17"/>
       <c r="AA91" s="17"/>
       <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
+      <c r="AC91" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AD91" s="17"/>
       <c r="AE91" s="19"/>
       <c r="AF91" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AG91" s="21"/>
-      <c r="AH91" s="21"/>
-      <c r="AI91" s="21"/>
-      <c r="AJ91" s="21"/>
-      <c r="AK91" s="21"/>
-      <c r="AL91" s="21"/>
-      <c r="AM91" s="21"/>
-      <c r="AN91" s="21"/>
-      <c r="AO91" s="21"/>
-      <c r="AP91" s="21"/>
-      <c r="AQ91" s="21"/>
-      <c r="AR91" s="21"/>
-      <c r="AS91" s="21"/>
-      <c r="AT91" s="21"/>
-      <c r="AU91" s="21"/>
-      <c r="AV91" s="21"/>
-      <c r="AW91" s="21"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI91" s="20"/>
+      <c r="AJ91" s="20"/>
+      <c r="AK91" s="20"/>
+      <c r="AL91" s="20"/>
+      <c r="AM91" s="20"/>
+      <c r="AN91" s="20"/>
+      <c r="AO91" s="20"/>
+      <c r="AP91" s="20"/>
+      <c r="AQ91" s="20"/>
+      <c r="AR91" s="20"/>
+      <c r="AS91" s="20"/>
+      <c r="AT91" s="20"/>
+      <c r="AU91" s="20"/>
+      <c r="AV91" s="20"/>
+      <c r="AW91" s="20"/>
     </row>
     <row r="92">
-      <c r="A92" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>162</v>
+      <c r="A92" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C92" s="21">
-        <v>111211.0</v>
+        <v>111142.0</v>
       </c>
       <c r="D92" s="29">
         <v>45810.0</v>
       </c>
-      <c r="E92" s="80" t="s">
+      <c r="E92" s="79" t="s">
         <v>59</v>
       </c>
       <c r="F92" s="17"/>
-      <c r="G92" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H92" s="79" t="s">
+      <c r="G92" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I92" s="16" t="s">
@@ -11154,10 +11334,10 @@
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
       <c r="M92" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O92" s="17"/>
       <c r="P92" s="16" t="s">
@@ -11168,7 +11348,7 @@
       </c>
       <c r="R92" s="17"/>
       <c r="S92" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T92" s="17"/>
       <c r="U92" s="16" t="s">
@@ -11193,52 +11373,56 @@
       <c r="AF92" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AG92" s="20"/>
-      <c r="AH92" s="20"/>
-      <c r="AI92" s="20"/>
-      <c r="AJ92" s="20"/>
-      <c r="AK92" s="20"/>
-      <c r="AL92" s="20"/>
-      <c r="AM92" s="20"/>
-      <c r="AN92" s="20"/>
-      <c r="AO92" s="20"/>
-      <c r="AP92" s="20"/>
-      <c r="AQ92" s="20"/>
-      <c r="AR92" s="20"/>
-      <c r="AS92" s="20"/>
-      <c r="AT92" s="20"/>
-      <c r="AU92" s="20"/>
-      <c r="AV92" s="20"/>
-      <c r="AW92" s="20"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
+      <c r="AL92" s="21"/>
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="21"/>
+      <c r="AO92" s="21"/>
+      <c r="AP92" s="21"/>
+      <c r="AQ92" s="21"/>
+      <c r="AR92" s="21"/>
+      <c r="AS92" s="21"/>
+      <c r="AT92" s="21"/>
+      <c r="AU92" s="21"/>
+      <c r="AV92" s="21"/>
+      <c r="AW92" s="21"/>
     </row>
     <row r="93">
-      <c r="A93" s="66" t="s">
-        <v>218</v>
+      <c r="A93" s="68" t="s">
+        <v>215</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C93" s="21">
-        <v>111142.0</v>
+        <v>110187.0</v>
       </c>
       <c r="D93" s="29">
-        <v>45810.0</v>
-      </c>
-      <c r="E93" s="80" t="s">
+        <v>45817.0</v>
+      </c>
+      <c r="E93" s="79" t="s">
         <v>59</v>
       </c>
       <c r="F93" s="17"/>
-      <c r="G93" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" s="79" t="s">
+      <c r="G93" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
+      <c r="K93" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="L93" s="17"/>
       <c r="M93" s="16" t="s">
         <v>51</v>
@@ -11254,9 +11438,7 @@
         <v>51</v>
       </c>
       <c r="R93" s="17"/>
-      <c r="S93" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="S93" s="17"/>
       <c r="T93" s="17"/>
       <c r="U93" s="16" t="s">
         <v>51</v>
@@ -11269,7 +11451,7 @@
         <v>55</v>
       </c>
       <c r="Y93" s="17"/>
-      <c r="Z93" s="17"/>
+      <c r="Z93" s="16"/>
       <c r="AA93" s="17"/>
       <c r="AB93" s="17"/>
       <c r="AC93" s="16" t="s">
@@ -11281,7 +11463,9 @@
         <v>48</v>
       </c>
       <c r="AG93" s="21"/>
-      <c r="AH93" s="21"/>
+      <c r="AH93" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI93" s="21"/>
       <c r="AJ93" s="21"/>
       <c r="AK93" s="21"/>
@@ -11299,35 +11483,33 @@
       <c r="AW93" s="21"/>
     </row>
     <row r="94">
-      <c r="A94" s="66" t="s">
-        <v>219</v>
+      <c r="A94" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C94" s="21">
-        <v>110187.0</v>
+        <v>85807.0</v>
       </c>
       <c r="D94" s="29">
-        <v>45817.0</v>
-      </c>
-      <c r="E94" s="80" t="s">
-        <v>59</v>
+        <v>45776.0</v>
+      </c>
+      <c r="E94" s="79" t="s">
+        <v>217</v>
       </c>
       <c r="F94" s="17"/>
-      <c r="G94" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H94" s="79" t="s">
+      <c r="G94" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J94" s="17"/>
-      <c r="K94" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="K94" s="17"/>
       <c r="L94" s="17"/>
       <c r="M94" s="16" t="s">
         <v>51</v>
@@ -11343,7 +11525,9 @@
         <v>51</v>
       </c>
       <c r="R94" s="17"/>
-      <c r="S94" s="17"/>
+      <c r="S94" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="T94" s="17"/>
       <c r="U94" s="16" t="s">
         <v>51</v>
@@ -11356,7 +11540,7 @@
         <v>55</v>
       </c>
       <c r="Y94" s="17"/>
-      <c r="Z94" s="16"/>
+      <c r="Z94" s="17"/>
       <c r="AA94" s="17"/>
       <c r="AB94" s="17"/>
       <c r="AC94" s="16" t="s">
@@ -11368,7 +11552,9 @@
         <v>48</v>
       </c>
       <c r="AG94" s="21"/>
-      <c r="AH94" s="21"/>
+      <c r="AH94" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI94" s="21"/>
       <c r="AJ94" s="21"/>
       <c r="AK94" s="21"/>
@@ -11386,30 +11572,30 @@
       <c r="AW94" s="21"/>
     </row>
     <row r="95">
-      <c r="A95" s="66" t="s">
-        <v>220</v>
+      <c r="A95" s="68" t="s">
+        <v>218</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="C95" s="21">
-        <v>85807.0</v>
+        <v>85518.0</v>
       </c>
       <c r="D95" s="29">
-        <v>45776.0</v>
-      </c>
-      <c r="E95" s="80" t="s">
-        <v>221</v>
+        <v>45777.0</v>
+      </c>
+      <c r="E95" s="79" t="s">
+        <v>217</v>
       </c>
       <c r="F95" s="17"/>
-      <c r="G95" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" s="79" t="s">
+      <c r="G95" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
@@ -11455,7 +11641,9 @@
         <v>48</v>
       </c>
       <c r="AG95" s="21"/>
-      <c r="AH95" s="21"/>
+      <c r="AH95" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI95" s="21"/>
       <c r="AJ95" s="21"/>
       <c r="AK95" s="21"/>
@@ -11473,26 +11661,26 @@
       <c r="AW95" s="21"/>
     </row>
     <row r="96">
-      <c r="A96" s="66" t="s">
-        <v>222</v>
+      <c r="A96" s="68" t="s">
+        <v>219</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C96" s="21">
-        <v>85518.0</v>
+        <v>86774.0</v>
       </c>
       <c r="D96" s="29">
-        <v>45777.0</v>
-      </c>
-      <c r="E96" s="80" t="s">
-        <v>221</v>
+        <v>45782.0</v>
+      </c>
+      <c r="E96" s="79" t="s">
+        <v>59</v>
       </c>
       <c r="F96" s="17"/>
-      <c r="G96" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H96" s="79" t="s">
+      <c r="G96" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H96" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I96" s="16" t="s">
@@ -11509,10 +11697,10 @@
       </c>
       <c r="O96" s="17"/>
       <c r="P96" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q96" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R96" s="17"/>
       <c r="S96" s="16" t="s">
@@ -11542,7 +11730,9 @@
         <v>48</v>
       </c>
       <c r="AG96" s="21"/>
-      <c r="AH96" s="21"/>
+      <c r="AH96" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI96" s="21"/>
       <c r="AJ96" s="21"/>
       <c r="AK96" s="21"/>
@@ -11560,30 +11750,30 @@
       <c r="AW96" s="21"/>
     </row>
     <row r="97">
-      <c r="A97" s="66" t="s">
-        <v>223</v>
+      <c r="A97" s="68" t="s">
+        <v>220</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C97" s="21">
-        <v>86774.0</v>
+        <v>85800.0</v>
       </c>
       <c r="D97" s="29">
-        <v>45782.0</v>
-      </c>
-      <c r="E97" s="80" t="s">
-        <v>59</v>
+        <v>45776.0</v>
+      </c>
+      <c r="E97" s="79" t="s">
+        <v>217</v>
       </c>
       <c r="F97" s="17"/>
-      <c r="G97" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H97" s="79" t="s">
+      <c r="G97" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
@@ -11599,7 +11789,7 @@
         <v>55</v>
       </c>
       <c r="Q97" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="R97" s="17"/>
       <c r="S97" s="16" t="s">
@@ -11629,7 +11819,9 @@
         <v>48</v>
       </c>
       <c r="AG97" s="21"/>
-      <c r="AH97" s="21"/>
+      <c r="AH97" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI97" s="21"/>
       <c r="AJ97" s="21"/>
       <c r="AK97" s="21"/>
@@ -11647,46 +11839,48 @@
       <c r="AW97" s="21"/>
     </row>
     <row r="98">
-      <c r="A98" s="66" t="s">
-        <v>224</v>
+      <c r="A98" s="68" t="s">
+        <v>221</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="21">
-        <v>85800.0</v>
+        <v>134910.0</v>
       </c>
       <c r="D98" s="29">
-        <v>45776.0</v>
-      </c>
-      <c r="E98" s="80" t="s">
-        <v>221</v>
+        <v>45844.0</v>
+      </c>
+      <c r="E98" s="79" t="s">
+        <v>217</v>
       </c>
       <c r="F98" s="17"/>
-      <c r="G98" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H98" s="79" t="s">
+      <c r="G98" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>55</v>
       </c>
       <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
+      <c r="K98" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="L98" s="17"/>
       <c r="M98" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N98" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="O98" s="17"/>
       <c r="P98" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q98" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R98" s="17"/>
       <c r="S98" s="16" t="s">
@@ -11694,11 +11888,9 @@
       </c>
       <c r="T98" s="17"/>
       <c r="U98" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="V98" s="16" t="s">
-        <v>51</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="V98" s="17"/>
       <c r="W98" s="17"/>
       <c r="X98" s="16" t="s">
         <v>55</v>
@@ -11716,7 +11908,9 @@
         <v>48</v>
       </c>
       <c r="AG98" s="21"/>
-      <c r="AH98" s="21"/>
+      <c r="AH98" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI98" s="21"/>
       <c r="AJ98" s="21"/>
       <c r="AK98" s="21"/>
@@ -11734,63 +11928,85 @@
       <c r="AW98" s="21"/>
     </row>
     <row r="99">
-      <c r="A99" s="66" t="s">
-        <v>225</v>
+      <c r="A99" s="68" t="s">
+        <v>222</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C99" s="21">
-        <v>134910.0</v>
+        <v>136989.0</v>
       </c>
       <c r="D99" s="29">
-        <v>45844.0</v>
-      </c>
-      <c r="E99" s="80" t="s">
-        <v>221</v>
+        <v>45853.0</v>
+      </c>
+      <c r="E99" s="79" t="s">
+        <v>67</v>
       </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H99" s="79" t="s">
+      <c r="G99" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H99" s="81" t="s">
         <v>50</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J99" s="17"/>
+      <c r="J99" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="K99" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L99" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="L99" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="M99" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N99" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O99" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q99" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="R99" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S99" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N99" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O99" s="17"/>
-      <c r="P99" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T99" s="17"/>
+      <c r="T99" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="U99" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="V99" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W99" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="X99" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="Y99" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z99" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA99" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="AB99" s="17"/>
       <c r="AC99" s="16" t="s">
         <v>61</v>
@@ -11801,7 +12017,9 @@
         <v>48</v>
       </c>
       <c r="AG99" s="21"/>
-      <c r="AH99" s="21"/>
+      <c r="AH99" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="AI99" s="21"/>
       <c r="AJ99" s="21"/>
       <c r="AK99" s="21"/>
@@ -11819,50 +12037,76 @@
       <c r="AW99" s="21"/>
     </row>
     <row r="100">
-      <c r="A100" s="66" t="s">
-        <v>226</v>
+      <c r="A100" s="68" t="s">
+        <v>223</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C100" s="21">
-        <v>136989.0</v>
-      </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="77"/>
+        <v>136801.0</v>
+      </c>
+      <c r="D100" s="29">
+        <v>45846.0</v>
+      </c>
+      <c r="E100" s="79" t="s">
+        <v>67</v>
+      </c>
       <c r="F100" s="17"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="I100" s="17"/>
+      <c r="G100" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
+      <c r="M100" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N100" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="P100" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q100" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
+      <c r="S100" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
+      <c r="U100" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="V100" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="W100" s="17"/>
       <c r="X100" s="17"/>
       <c r="Y100" s="17"/>
       <c r="Z100" s="17"/>
       <c r="AA100" s="17"/>
       <c r="AB100" s="17"/>
-      <c r="AC100" s="17"/>
+      <c r="AC100" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AD100" s="17"/>
       <c r="AE100" s="19"/>
       <c r="AF100" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AG100" s="21"/>
-      <c r="AH100" s="21"/>
+      <c r="AH100" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="AI100" s="21"/>
       <c r="AJ100" s="21"/>
       <c r="AK100" s="21"/>
@@ -11879,101 +12123,16 @@
       <c r="AV100" s="21"/>
       <c r="AW100" s="21"/>
     </row>
-    <row r="101">
-      <c r="A101" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="21">
-        <v>136801.0</v>
-      </c>
-      <c r="D101" s="29">
-        <v>45846.0</v>
-      </c>
-      <c r="E101" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H101" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="I101" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O101" s="17"/>
-      <c r="P101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="R101" s="17"/>
-      <c r="S101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T101" s="17"/>
-      <c r="U101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="V101" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="17"/>
-      <c r="AB101" s="17"/>
-      <c r="AC101" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD101" s="17"/>
-      <c r="AE101" s="19"/>
-      <c r="AF101" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG101" s="21"/>
-      <c r="AH101" s="21"/>
-      <c r="AI101" s="21"/>
-      <c r="AJ101" s="21"/>
-      <c r="AK101" s="21"/>
-      <c r="AL101" s="21"/>
-      <c r="AM101" s="21"/>
-      <c r="AN101" s="21"/>
-      <c r="AO101" s="21"/>
-      <c r="AP101" s="21"/>
-      <c r="AQ101" s="21"/>
-      <c r="AR101" s="21"/>
-      <c r="AS101" s="21"/>
-      <c r="AT101" s="21"/>
-      <c r="AU101" s="21"/>
-      <c r="AV101" s="21"/>
-      <c r="AW101" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$B$1:$B$981"/>
+  <autoFilter ref="$A$1:$AW$980"/>
   <mergeCells count="1">
     <mergeCell ref="I1:AA1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AF3:AF28 AG29 AF30:AF101">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AF3:AF28 AG29 AF30:AF100">
       <formula1>"SIM,NÃO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B101">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B100">
       <formula1>"SIM,NÃO"</formula1>
     </dataValidation>
   </dataValidations>
